--- a/Excel-XLSX/UN-VEN.xlsx
+++ b/Excel-XLSX/UN-VEN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2pI0ef</t>
+    <t>6mX9kD</t>
   </si>
   <si>
     <t>2010</t>
@@ -774,7 +774,7 @@
     <t>107</t>
   </si>
   <si>
-    <t>29179</t>
+    <t>29176</t>
   </si>
   <si>
     <t>1572</t>
@@ -3078,8 +3078,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -3146,8 +3146,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -3214,8 +3214,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -3282,8 +3282,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -3350,8 +3350,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -3418,8 +3418,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -3486,8 +3486,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -3554,8 +3554,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -3622,8 +3622,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -3690,8 +3690,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -3758,8 +3758,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -3826,8 +3826,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -4030,8 +4030,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -4098,8 +4098,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -4166,8 +4166,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -4234,8 +4234,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -4302,8 +4302,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -4370,8 +4370,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -4438,8 +4438,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -4506,8 +4506,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -4574,8 +4574,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -4642,8 +4642,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -4710,8 +4710,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -4778,8 +4778,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -4846,8 +4846,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -4914,8 +4914,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4982,8 +4982,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -5050,8 +5050,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -5118,8 +5118,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -5186,8 +5186,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -5254,8 +5254,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -5322,8 +5322,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -5390,8 +5390,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -5458,8 +5458,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -5526,8 +5526,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -5594,8 +5594,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5662,8 +5662,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -5730,8 +5730,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -5798,8 +5798,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -5866,8 +5866,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -5934,8 +5934,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -6002,8 +6002,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -6070,8 +6070,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -6138,8 +6138,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -6206,8 +6206,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -6274,8 +6274,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -6342,8 +6342,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -6410,8 +6410,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -6478,8 +6478,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -6546,8 +6546,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -6614,8 +6614,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -6682,8 +6682,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -6750,8 +6750,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -6818,8 +6818,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -6886,8 +6886,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -6954,8 +6954,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -7022,8 +7022,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -7090,8 +7090,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -7158,8 +7158,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -7226,8 +7226,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -7294,8 +7294,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -7362,8 +7362,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -7430,8 +7430,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -7498,8 +7498,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -7702,8 +7702,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -7770,8 +7770,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -7838,8 +7838,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -7906,8 +7906,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -7974,8 +7974,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -8042,8 +8042,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -8246,8 +8246,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -8314,8 +8314,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -8382,8 +8382,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -8450,8 +8450,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -8518,8 +8518,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -8586,8 +8586,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -8654,8 +8654,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -8722,8 +8722,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -8790,8 +8790,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -8858,8 +8858,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -8926,8 +8926,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -8994,8 +8994,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -9062,8 +9062,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -9130,8 +9130,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -9198,8 +9198,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -9266,8 +9266,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -9334,8 +9334,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -9402,8 +9402,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -9470,8 +9470,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -9538,8 +9538,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -9606,8 +9606,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -9674,8 +9674,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -9742,8 +9742,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -9810,8 +9810,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -9878,8 +9878,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -9946,8 +9946,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -10014,8 +10014,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -10082,8 +10082,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -10150,8 +10150,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -10269,7 +10269,7 @@
         <v>253</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>32</v>
@@ -10354,8 +10354,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -10422,8 +10422,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -10490,8 +10490,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -10558,8 +10558,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -10626,8 +10626,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -10694,8 +10694,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -10762,8 +10762,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -10830,8 +10830,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -10898,8 +10898,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -10966,8 +10966,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -11034,8 +11034,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -11102,8 +11102,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -11170,8 +11170,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -11238,8 +11238,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -11306,8 +11306,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -11374,8 +11374,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -11442,8 +11442,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -11510,8 +11510,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -11578,8 +11578,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -11646,8 +11646,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -11714,8 +11714,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -11782,8 +11782,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -11850,8 +11850,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -11918,8 +11918,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -11986,8 +11986,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -12054,8 +12054,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -12122,8 +12122,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -12190,8 +12190,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -12258,8 +12258,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -12326,8 +12326,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -12394,8 +12394,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -12462,8 +12462,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -12530,8 +12530,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -12598,8 +12598,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -12666,8 +12666,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -12734,8 +12734,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -12802,8 +12802,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -12870,8 +12870,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -12938,8 +12938,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -13006,8 +13006,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -13074,8 +13074,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -13142,8 +13142,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -13210,8 +13210,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -13278,8 +13278,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -13346,8 +13346,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -13414,8 +13414,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -13482,8 +13482,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -13550,8 +13550,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -13618,8 +13618,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -13686,8 +13686,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -13754,8 +13754,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -13822,8 +13822,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -13890,8 +13890,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -13958,8 +13958,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -14026,8 +14026,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -14094,8 +14094,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -14162,8 +14162,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="166">
@@ -14230,8 +14230,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -14298,8 +14298,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -14366,8 +14366,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169">
@@ -14434,8 +14434,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -14502,8 +14502,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -14570,8 +14570,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -14638,8 +14638,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -14706,8 +14706,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -14774,8 +14774,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -14842,8 +14842,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -14910,8 +14910,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -14978,8 +14978,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -15046,8 +15046,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -15114,8 +15114,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -15182,8 +15182,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -15250,8 +15250,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -15318,8 +15318,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183">
@@ -15386,8 +15386,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184">
@@ -15454,8 +15454,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -15522,8 +15522,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -15590,8 +15590,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -15658,8 +15658,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="188">
@@ -15726,8 +15726,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189">
@@ -15930,8 +15930,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -15998,8 +15998,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -16066,8 +16066,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -16134,8 +16134,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -16202,8 +16202,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -16270,8 +16270,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -16338,8 +16338,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -16406,8 +16406,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -16474,8 +16474,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -16542,8 +16542,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="201">
@@ -16610,8 +16610,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202">
@@ -16678,8 +16678,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -16746,8 +16746,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -16814,8 +16814,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -16882,8 +16882,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -16950,8 +16950,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -17018,8 +17018,8 @@
       <c r="U207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>33</v>
+      <c r="V207" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -17086,8 +17086,8 @@
       <c r="U208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>33</v>
+      <c r="V208" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -17154,8 +17154,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -17222,8 +17222,8 @@
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -17290,8 +17290,8 @@
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -17358,8 +17358,8 @@
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -17426,8 +17426,8 @@
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -17494,8 +17494,8 @@
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -17562,8 +17562,8 @@
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -17630,8 +17630,8 @@
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -17698,8 +17698,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -17766,8 +17766,8 @@
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -17834,8 +17834,8 @@
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -17902,8 +17902,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -17970,8 +17970,8 @@
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -18038,8 +18038,8 @@
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -18106,8 +18106,8 @@
       <c r="U223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>33</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -18174,8 +18174,8 @@
       <c r="U224" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>33</v>
+      <c r="V224" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225">
@@ -18242,8 +18242,8 @@
       <c r="U225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>33</v>
+      <c r="V225" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -18310,8 +18310,8 @@
       <c r="U226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>33</v>
+      <c r="V226" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -18378,8 +18378,8 @@
       <c r="U227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>33</v>
+      <c r="V227" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -18446,8 +18446,8 @@
       <c r="U228" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>33</v>
+      <c r="V228" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="229">
@@ -18514,8 +18514,8 @@
       <c r="U229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>33</v>
+      <c r="V229" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -18582,8 +18582,8 @@
       <c r="U230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>33</v>
+      <c r="V230" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="231">
@@ -18650,8 +18650,8 @@
       <c r="U231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>33</v>
+      <c r="V231" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232">
@@ -18718,8 +18718,8 @@
       <c r="U232" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>33</v>
+      <c r="V232" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="233">
@@ -18786,8 +18786,8 @@
       <c r="U233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>33</v>
+      <c r="V233" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -18854,8 +18854,8 @@
       <c r="U234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>33</v>
+      <c r="V234" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -18922,8 +18922,8 @@
       <c r="U235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>33</v>
+      <c r="V235" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="236">
@@ -18990,8 +18990,8 @@
       <c r="U236" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>33</v>
+      <c r="V236" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="237">
@@ -19058,8 +19058,8 @@
       <c r="U237" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>33</v>
+      <c r="V237" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="238">
@@ -19126,8 +19126,8 @@
       <c r="U238" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>33</v>
+      <c r="V238" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="239">
@@ -19194,8 +19194,8 @@
       <c r="U239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>33</v>
+      <c r="V239" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -19262,8 +19262,8 @@
       <c r="U240" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>33</v>
+      <c r="V240" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="241">
@@ -19330,8 +19330,8 @@
       <c r="U241" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>33</v>
+      <c r="V241" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="242">
@@ -19398,8 +19398,8 @@
       <c r="U242" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>33</v>
+      <c r="V242" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="243">
@@ -19466,8 +19466,8 @@
       <c r="U243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>33</v>
+      <c r="V243" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="244">
@@ -19534,8 +19534,8 @@
       <c r="U244" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>33</v>
+      <c r="V244" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -19602,8 +19602,8 @@
       <c r="U245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>33</v>
+      <c r="V245" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="246">
@@ -19670,8 +19670,8 @@
       <c r="U246" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>33</v>
+      <c r="V246" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="247">
@@ -19738,8 +19738,8 @@
       <c r="U247" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>33</v>
+      <c r="V247" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="248">
@@ -19806,8 +19806,8 @@
       <c r="U248" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>33</v>
+      <c r="V248" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="249">
@@ -19874,8 +19874,8 @@
       <c r="U249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>33</v>
+      <c r="V249" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -19942,8 +19942,8 @@
       <c r="U250" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>33</v>
+      <c r="V250" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -20146,8 +20146,8 @@
       <c r="U253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>33</v>
+      <c r="V253" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -20214,8 +20214,8 @@
       <c r="U254" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>33</v>
+      <c r="V254" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -20282,8 +20282,8 @@
       <c r="U255" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>33</v>
+      <c r="V255" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="256">
@@ -20350,8 +20350,8 @@
       <c r="U256" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>33</v>
+      <c r="V256" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="257">
@@ -20418,8 +20418,8 @@
       <c r="U257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>33</v>
+      <c r="V257" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="258">
@@ -20486,8 +20486,8 @@
       <c r="U258" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>33</v>
+      <c r="V258" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="259">
@@ -20554,8 +20554,8 @@
       <c r="U259" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>33</v>
+      <c r="V259" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="260">
@@ -20622,8 +20622,8 @@
       <c r="U260" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>33</v>
+      <c r="V260" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="261">
@@ -20690,8 +20690,8 @@
       <c r="U261" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V261" s="1" t="s">
-        <v>33</v>
+      <c r="V261" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="262">
@@ -20758,8 +20758,8 @@
       <c r="U262" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V262" s="1" t="s">
-        <v>33</v>
+      <c r="V262" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -20826,8 +20826,8 @@
       <c r="U263" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>33</v>
+      <c r="V263" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="264">
@@ -20894,8 +20894,8 @@
       <c r="U264" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>33</v>
+      <c r="V264" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -20962,8 +20962,8 @@
       <c r="U265" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>33</v>
+      <c r="V265" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -21030,8 +21030,8 @@
       <c r="U266" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>33</v>
+      <c r="V266" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -21098,8 +21098,8 @@
       <c r="U267" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>33</v>
+      <c r="V267" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -21166,8 +21166,8 @@
       <c r="U268" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>33</v>
+      <c r="V268" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="269">
@@ -21234,8 +21234,8 @@
       <c r="U269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>33</v>
+      <c r="V269" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -21302,8 +21302,8 @@
       <c r="U270" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>33</v>
+      <c r="V270" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -21370,8 +21370,8 @@
       <c r="U271" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>33</v>
+      <c r="V271" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -21438,8 +21438,8 @@
       <c r="U272" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>33</v>
+      <c r="V272" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -21506,8 +21506,8 @@
       <c r="U273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>33</v>
+      <c r="V273" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="274">
@@ -21574,8 +21574,8 @@
       <c r="U274" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>33</v>
+      <c r="V274" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -21642,8 +21642,8 @@
       <c r="U275" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>33</v>
+      <c r="V275" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -21710,8 +21710,8 @@
       <c r="U276" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>33</v>
+      <c r="V276" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -21778,8 +21778,8 @@
       <c r="U277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>33</v>
+      <c r="V277" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -21846,8 +21846,8 @@
       <c r="U278" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>33</v>
+      <c r="V278" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -21914,8 +21914,8 @@
       <c r="U279" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>33</v>
+      <c r="V279" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="280">
@@ -21982,8 +21982,8 @@
       <c r="U280" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>33</v>
+      <c r="V280" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="281">
@@ -22050,8 +22050,8 @@
       <c r="U281" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>33</v>
+      <c r="V281" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="282">
@@ -22118,8 +22118,8 @@
       <c r="U282" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>33</v>
+      <c r="V282" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="283">
@@ -22186,8 +22186,8 @@
       <c r="U283" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>33</v>
+      <c r="V283" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -22254,8 +22254,8 @@
       <c r="U284" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>33</v>
+      <c r="V284" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -22322,8 +22322,8 @@
       <c r="U285" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>33</v>
+      <c r="V285" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -22390,8 +22390,8 @@
       <c r="U286" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>33</v>
+      <c r="V286" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -22458,8 +22458,8 @@
       <c r="U287" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>33</v>
+      <c r="V287" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="288">
@@ -22526,8 +22526,8 @@
       <c r="U288" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>33</v>
+      <c r="V288" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -22594,8 +22594,8 @@
       <c r="U289" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>33</v>
+      <c r="V289" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="290">
@@ -22662,8 +22662,8 @@
       <c r="U290" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>33</v>
+      <c r="V290" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="291">
@@ -22730,8 +22730,8 @@
       <c r="U291" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>33</v>
+      <c r="V291" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="292">
@@ -22798,8 +22798,8 @@
       <c r="U292" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>33</v>
+      <c r="V292" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="293">
@@ -22866,8 +22866,8 @@
       <c r="U293" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V293" s="1" t="s">
-        <v>33</v>
+      <c r="V293" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="294">
@@ -22934,8 +22934,8 @@
       <c r="U294" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>33</v>
+      <c r="V294" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="295">
@@ -23002,8 +23002,8 @@
       <c r="U295" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>33</v>
+      <c r="V295" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="296">
@@ -23070,8 +23070,8 @@
       <c r="U296" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V296" s="1" t="s">
-        <v>33</v>
+      <c r="V296" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="297">
@@ -23274,8 +23274,8 @@
       <c r="U299" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V299" s="1" t="s">
-        <v>33</v>
+      <c r="V299" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="300">
@@ -23342,8 +23342,8 @@
       <c r="U300" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>33</v>
+      <c r="V300" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="301">
@@ -23410,8 +23410,8 @@
       <c r="U301" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>33</v>
+      <c r="V301" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="302">
@@ -23478,8 +23478,8 @@
       <c r="U302" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>33</v>
+      <c r="V302" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="303">
@@ -23546,8 +23546,8 @@
       <c r="U303" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>33</v>
+      <c r="V303" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="304">
@@ -23614,8 +23614,8 @@
       <c r="U304" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>33</v>
+      <c r="V304" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="305">
@@ -23682,8 +23682,8 @@
       <c r="U305" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>33</v>
+      <c r="V305" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -23750,8 +23750,8 @@
       <c r="U306" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>33</v>
+      <c r="V306" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="307">
@@ -23818,8 +23818,8 @@
       <c r="U307" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>33</v>
+      <c r="V307" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="308">
@@ -23886,8 +23886,8 @@
       <c r="U308" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>33</v>
+      <c r="V308" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="309">
@@ -23954,8 +23954,8 @@
       <c r="U309" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>33</v>
+      <c r="V309" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="310">
@@ -24022,8 +24022,8 @@
       <c r="U310" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>33</v>
+      <c r="V310" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="311">
@@ -24090,8 +24090,8 @@
       <c r="U311" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>33</v>
+      <c r="V311" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="312">
@@ -24158,8 +24158,8 @@
       <c r="U312" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>33</v>
+      <c r="V312" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="313">
@@ -24226,8 +24226,8 @@
       <c r="U313" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>33</v>
+      <c r="V313" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="314">
@@ -24294,8 +24294,8 @@
       <c r="U314" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>33</v>
+      <c r="V314" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="315">
@@ -24362,8 +24362,8 @@
       <c r="U315" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>33</v>
+      <c r="V315" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="316">
@@ -24430,8 +24430,8 @@
       <c r="U316" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>33</v>
+      <c r="V316" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="317">
@@ -24634,8 +24634,8 @@
       <c r="U319" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>33</v>
+      <c r="V319" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="320">
@@ -24702,8 +24702,8 @@
       <c r="U320" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>33</v>
+      <c r="V320" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="321">
@@ -24770,8 +24770,8 @@
       <c r="U321" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>33</v>
+      <c r="V321" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="322">
@@ -24838,8 +24838,8 @@
       <c r="U322" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V322" s="1" t="s">
-        <v>33</v>
+      <c r="V322" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="323">
@@ -24906,8 +24906,8 @@
       <c r="U323" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V323" s="1" t="s">
-        <v>33</v>
+      <c r="V323" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="324">
@@ -24974,8 +24974,8 @@
       <c r="U324" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V324" s="1" t="s">
-        <v>33</v>
+      <c r="V324" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="325">
@@ -25042,8 +25042,8 @@
       <c r="U325" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>33</v>
+      <c r="V325" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="326">
@@ -25246,8 +25246,8 @@
       <c r="U328" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V328" s="1" t="s">
-        <v>33</v>
+      <c r="V328" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="329">
@@ -25314,8 +25314,8 @@
       <c r="U329" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>33</v>
+      <c r="V329" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="330">
@@ -25382,8 +25382,8 @@
       <c r="U330" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>33</v>
+      <c r="V330" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="331">
@@ -25450,8 +25450,8 @@
       <c r="U331" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>33</v>
+      <c r="V331" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="332">
@@ -25518,8 +25518,8 @@
       <c r="U332" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>33</v>
+      <c r="V332" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="333">
@@ -25586,8 +25586,8 @@
       <c r="U333" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>33</v>
+      <c r="V333" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="334">
@@ -25790,8 +25790,8 @@
       <c r="U336" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V336" s="1" t="s">
-        <v>33</v>
+      <c r="V336" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="337">
@@ -25858,8 +25858,8 @@
       <c r="U337" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V337" s="1" t="s">
-        <v>33</v>
+      <c r="V337" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="338">
@@ -25926,8 +25926,8 @@
       <c r="U338" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>33</v>
+      <c r="V338" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="339">
@@ -25994,8 +25994,8 @@
       <c r="U339" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>33</v>
+      <c r="V339" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="340">
@@ -26062,8 +26062,8 @@
       <c r="U340" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>33</v>
+      <c r="V340" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="341">
@@ -26130,8 +26130,8 @@
       <c r="U341" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>33</v>
+      <c r="V341" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="342">
@@ -26198,8 +26198,8 @@
       <c r="U342" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>33</v>
+      <c r="V342" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="343">
@@ -26266,8 +26266,8 @@
       <c r="U343" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>33</v>
+      <c r="V343" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="344">
@@ -26334,8 +26334,8 @@
       <c r="U344" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V344" s="1" t="s">
-        <v>33</v>
+      <c r="V344" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="345">
@@ -26402,8 +26402,8 @@
       <c r="U345" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V345" s="1" t="s">
-        <v>33</v>
+      <c r="V345" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="346">
@@ -26470,8 +26470,8 @@
       <c r="U346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>33</v>
+      <c r="V346" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="347">
@@ -26538,8 +26538,8 @@
       <c r="U347" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V347" s="1" t="s">
-        <v>33</v>
+      <c r="V347" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="348">
@@ -26606,8 +26606,8 @@
       <c r="U348" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V348" s="1" t="s">
-        <v>33</v>
+      <c r="V348" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="349">
@@ -26674,8 +26674,8 @@
       <c r="U349" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V349" s="1" t="s">
-        <v>33</v>
+      <c r="V349" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="350">
@@ -26742,8 +26742,8 @@
       <c r="U350" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>33</v>
+      <c r="V350" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -26810,8 +26810,8 @@
       <c r="U351" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V351" s="1" t="s">
-        <v>33</v>
+      <c r="V351" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="352">
@@ -26878,8 +26878,8 @@
       <c r="U352" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V352" s="1" t="s">
-        <v>33</v>
+      <c r="V352" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="353">
@@ -26946,8 +26946,8 @@
       <c r="U353" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V353" s="1" t="s">
-        <v>33</v>
+      <c r="V353" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="354">
@@ -27014,8 +27014,8 @@
       <c r="U354" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V354" s="1" t="s">
-        <v>33</v>
+      <c r="V354" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="355">
@@ -27082,8 +27082,8 @@
       <c r="U355" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>33</v>
+      <c r="V355" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="356">
@@ -27150,8 +27150,8 @@
       <c r="U356" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>33</v>
+      <c r="V356" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="357">
@@ -27218,8 +27218,8 @@
       <c r="U357" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>33</v>
+      <c r="V357" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="358">
@@ -27286,8 +27286,8 @@
       <c r="U358" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V358" s="1" t="s">
-        <v>33</v>
+      <c r="V358" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="359">
@@ -27354,8 +27354,8 @@
       <c r="U359" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V359" s="1" t="s">
-        <v>33</v>
+      <c r="V359" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="360">
@@ -27422,8 +27422,8 @@
       <c r="U360" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V360" s="1" t="s">
-        <v>33</v>
+      <c r="V360" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="361">
@@ -27490,8 +27490,8 @@
       <c r="U361" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V361" s="1" t="s">
-        <v>33</v>
+      <c r="V361" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="362">
@@ -27558,8 +27558,8 @@
       <c r="U362" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V362" s="1" t="s">
-        <v>33</v>
+      <c r="V362" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="363">
@@ -27626,8 +27626,8 @@
       <c r="U363" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V363" s="1" t="s">
-        <v>33</v>
+      <c r="V363" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="364">
@@ -27694,8 +27694,8 @@
       <c r="U364" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V364" s="1" t="s">
-        <v>33</v>
+      <c r="V364" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="365">
@@ -27762,8 +27762,8 @@
       <c r="U365" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V365" s="1" t="s">
-        <v>33</v>
+      <c r="V365" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="366">
@@ -27830,8 +27830,8 @@
       <c r="U366" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V366" s="1" t="s">
-        <v>33</v>
+      <c r="V366" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="367">
@@ -27898,8 +27898,8 @@
       <c r="U367" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V367" s="1" t="s">
-        <v>33</v>
+      <c r="V367" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="368">
@@ -27966,8 +27966,8 @@
       <c r="U368" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V368" s="1" t="s">
-        <v>33</v>
+      <c r="V368" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="369">
@@ -28034,8 +28034,8 @@
       <c r="U369" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V369" s="1" t="s">
-        <v>33</v>
+      <c r="V369" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="370">
@@ -28102,8 +28102,8 @@
       <c r="U370" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V370" s="1" t="s">
-        <v>33</v>
+      <c r="V370" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="371">
@@ -28170,8 +28170,8 @@
       <c r="U371" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V371" s="1" t="s">
-        <v>33</v>
+      <c r="V371" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="372">
@@ -28238,8 +28238,8 @@
       <c r="U372" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V372" s="1" t="s">
-        <v>33</v>
+      <c r="V372" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="373">
@@ -28306,8 +28306,8 @@
       <c r="U373" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V373" s="1" t="s">
-        <v>33</v>
+      <c r="V373" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="374">
@@ -28374,8 +28374,8 @@
       <c r="U374" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V374" s="1" t="s">
-        <v>33</v>
+      <c r="V374" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="375">
@@ -28442,8 +28442,8 @@
       <c r="U375" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V375" s="1" t="s">
-        <v>33</v>
+      <c r="V375" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="376">
@@ -28510,8 +28510,8 @@
       <c r="U376" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V376" s="1" t="s">
-        <v>33</v>
+      <c r="V376" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="377">
@@ -28578,8 +28578,8 @@
       <c r="U377" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V377" s="1" t="s">
-        <v>33</v>
+      <c r="V377" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="378">
@@ -28646,8 +28646,8 @@
       <c r="U378" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V378" s="1" t="s">
-        <v>33</v>
+      <c r="V378" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="379">
@@ -28714,8 +28714,8 @@
       <c r="U379" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V379" s="1" t="s">
-        <v>33</v>
+      <c r="V379" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="380">
@@ -28782,8 +28782,8 @@
       <c r="U380" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V380" s="1" t="s">
-        <v>33</v>
+      <c r="V380" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="381">
@@ -28850,8 +28850,8 @@
       <c r="U381" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V381" s="1" t="s">
-        <v>33</v>
+      <c r="V381" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="382">
@@ -28918,8 +28918,8 @@
       <c r="U382" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V382" s="1" t="s">
-        <v>33</v>
+      <c r="V382" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="383">
@@ -28986,8 +28986,8 @@
       <c r="U383" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V383" s="1" t="s">
-        <v>33</v>
+      <c r="V383" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="384">
@@ -29054,8 +29054,8 @@
       <c r="U384" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V384" s="1" t="s">
-        <v>33</v>
+      <c r="V384" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="385">
@@ -29122,8 +29122,8 @@
       <c r="U385" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V385" s="1" t="s">
-        <v>33</v>
+      <c r="V385" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="386">
@@ -29190,8 +29190,8 @@
       <c r="U386" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V386" s="1" t="s">
-        <v>33</v>
+      <c r="V386" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="387">
@@ -29258,8 +29258,8 @@
       <c r="U387" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V387" s="1" t="s">
-        <v>33</v>
+      <c r="V387" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="388">
@@ -29326,8 +29326,8 @@
       <c r="U388" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V388" s="1" t="s">
-        <v>33</v>
+      <c r="V388" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="389">
@@ -29394,8 +29394,8 @@
       <c r="U389" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V389" s="1" t="s">
-        <v>33</v>
+      <c r="V389" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="390">
@@ -29598,8 +29598,8 @@
       <c r="U392" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V392" s="1" t="s">
-        <v>33</v>
+      <c r="V392" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="393">
@@ -29666,8 +29666,8 @@
       <c r="U393" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V393" s="1" t="s">
-        <v>33</v>
+      <c r="V393" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="394">
@@ -29734,8 +29734,8 @@
       <c r="U394" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V394" s="1" t="s">
-        <v>33</v>
+      <c r="V394" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="395">
@@ -29802,8 +29802,8 @@
       <c r="U395" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V395" s="1" t="s">
-        <v>33</v>
+      <c r="V395" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="396">
@@ -29870,8 +29870,8 @@
       <c r="U396" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V396" s="1" t="s">
-        <v>33</v>
+      <c r="V396" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="397">
@@ -29938,8 +29938,8 @@
       <c r="U397" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V397" s="1" t="s">
-        <v>33</v>
+      <c r="V397" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="398">
@@ -30006,8 +30006,8 @@
       <c r="U398" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V398" s="1" t="s">
-        <v>33</v>
+      <c r="V398" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="399">
@@ -30074,8 +30074,8 @@
       <c r="U399" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V399" s="1" t="s">
-        <v>33</v>
+      <c r="V399" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="400">
@@ -30142,8 +30142,8 @@
       <c r="U400" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V400" s="1" t="s">
-        <v>33</v>
+      <c r="V400" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="401">
@@ -30210,8 +30210,8 @@
       <c r="U401" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V401" s="1" t="s">
-        <v>33</v>
+      <c r="V401" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="402">
@@ -30278,8 +30278,8 @@
       <c r="U402" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V402" s="1" t="s">
-        <v>33</v>
+      <c r="V402" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="403">
@@ -30346,8 +30346,8 @@
       <c r="U403" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V403" s="1" t="s">
-        <v>33</v>
+      <c r="V403" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="404">
@@ -30414,8 +30414,8 @@
       <c r="U404" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V404" s="1" t="s">
-        <v>33</v>
+      <c r="V404" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="405">
@@ -30482,8 +30482,8 @@
       <c r="U405" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V405" s="1" t="s">
-        <v>33</v>
+      <c r="V405" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="406">
@@ -30550,8 +30550,8 @@
       <c r="U406" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V406" s="1" t="s">
-        <v>33</v>
+      <c r="V406" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="407">
@@ -30618,8 +30618,8 @@
       <c r="U407" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V407" s="1" t="s">
-        <v>33</v>
+      <c r="V407" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="408">
@@ -30686,8 +30686,8 @@
       <c r="U408" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V408" s="1" t="s">
-        <v>33</v>
+      <c r="V408" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="409">
@@ -30754,8 +30754,8 @@
       <c r="U409" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V409" s="1" t="s">
-        <v>33</v>
+      <c r="V409" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="410">
@@ -30822,8 +30822,8 @@
       <c r="U410" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V410" s="1" t="s">
-        <v>33</v>
+      <c r="V410" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="411">
@@ -30890,8 +30890,8 @@
       <c r="U411" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V411" s="1" t="s">
-        <v>33</v>
+      <c r="V411" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="412">
@@ -30958,8 +30958,8 @@
       <c r="U412" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V412" s="1" t="s">
-        <v>33</v>
+      <c r="V412" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="413">
@@ -31026,8 +31026,8 @@
       <c r="U413" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V413" s="1" t="s">
-        <v>33</v>
+      <c r="V413" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="414">
@@ -31094,8 +31094,8 @@
       <c r="U414" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V414" s="1" t="s">
-        <v>33</v>
+      <c r="V414" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="415">
@@ -31162,8 +31162,8 @@
       <c r="U415" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V415" s="1" t="s">
-        <v>33</v>
+      <c r="V415" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="416">
@@ -31230,8 +31230,8 @@
       <c r="U416" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V416" s="1" t="s">
-        <v>33</v>
+      <c r="V416" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="417">
@@ -31298,8 +31298,8 @@
       <c r="U417" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V417" s="1" t="s">
-        <v>33</v>
+      <c r="V417" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="418">
@@ -31366,8 +31366,8 @@
       <c r="U418" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V418" s="1" t="s">
-        <v>33</v>
+      <c r="V418" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="419">
@@ -31434,8 +31434,8 @@
       <c r="U419" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V419" s="1" t="s">
-        <v>33</v>
+      <c r="V419" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="420">
@@ -31502,8 +31502,8 @@
       <c r="U420" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V420" s="1" t="s">
-        <v>33</v>
+      <c r="V420" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="421">
@@ -31570,8 +31570,8 @@
       <c r="U421" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V421" s="1" t="s">
-        <v>33</v>
+      <c r="V421" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="422">
@@ -31638,8 +31638,8 @@
       <c r="U422" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V422" s="1" t="s">
-        <v>33</v>
+      <c r="V422" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="423">
@@ -31706,8 +31706,8 @@
       <c r="U423" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V423" s="1" t="s">
-        <v>33</v>
+      <c r="V423" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="424">
@@ -31774,8 +31774,8 @@
       <c r="U424" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V424" s="1" t="s">
-        <v>33</v>
+      <c r="V424" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="425">
@@ -31842,8 +31842,8 @@
       <c r="U425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V425" s="1" t="s">
-        <v>33</v>
+      <c r="V425" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="426">
@@ -32046,8 +32046,8 @@
       <c r="U428" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V428" s="1" t="s">
-        <v>33</v>
+      <c r="V428" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="429">
@@ -32114,8 +32114,8 @@
       <c r="U429" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V429" s="1" t="s">
-        <v>33</v>
+      <c r="V429" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="430">
@@ -32182,8 +32182,8 @@
       <c r="U430" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V430" s="1" t="s">
-        <v>33</v>
+      <c r="V430" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="431">
@@ -32250,8 +32250,8 @@
       <c r="U431" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V431" s="1" t="s">
-        <v>33</v>
+      <c r="V431" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="432">
@@ -32318,8 +32318,8 @@
       <c r="U432" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V432" s="1" t="s">
-        <v>33</v>
+      <c r="V432" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="433">
@@ -32386,8 +32386,8 @@
       <c r="U433" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V433" s="1" t="s">
-        <v>33</v>
+      <c r="V433" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="434">
@@ -32454,8 +32454,8 @@
       <c r="U434" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V434" s="1" t="s">
-        <v>33</v>
+      <c r="V434" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="435">
@@ -32522,8 +32522,8 @@
       <c r="U435" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V435" s="1" t="s">
-        <v>33</v>
+      <c r="V435" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="436">
@@ -32590,8 +32590,8 @@
       <c r="U436" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V436" s="1" t="s">
-        <v>33</v>
+      <c r="V436" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="437">
@@ -32658,8 +32658,8 @@
       <c r="U437" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V437" s="1" t="s">
-        <v>33</v>
+      <c r="V437" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="438">
@@ -32726,8 +32726,8 @@
       <c r="U438" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V438" s="1" t="s">
-        <v>33</v>
+      <c r="V438" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="439">
@@ -32794,8 +32794,8 @@
       <c r="U439" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V439" s="1" t="s">
-        <v>33</v>
+      <c r="V439" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="440">
@@ -32862,8 +32862,8 @@
       <c r="U440" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V440" s="1" t="s">
-        <v>33</v>
+      <c r="V440" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="441">
@@ -32930,8 +32930,8 @@
       <c r="U441" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V441" s="1" t="s">
-        <v>33</v>
+      <c r="V441" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="442">
@@ -32998,8 +32998,8 @@
       <c r="U442" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V442" s="1" t="s">
-        <v>33</v>
+      <c r="V442" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="443">
@@ -33066,8 +33066,8 @@
       <c r="U443" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V443" s="1" t="s">
-        <v>33</v>
+      <c r="V443" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="444">
@@ -33134,8 +33134,8 @@
       <c r="U444" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V444" s="1" t="s">
-        <v>33</v>
+      <c r="V444" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="445">
@@ -33202,8 +33202,8 @@
       <c r="U445" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V445" s="1" t="s">
-        <v>33</v>
+      <c r="V445" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="446">
@@ -33270,8 +33270,8 @@
       <c r="U446" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V446" s="1" t="s">
-        <v>33</v>
+      <c r="V446" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="447">
@@ -33338,8 +33338,8 @@
       <c r="U447" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V447" s="1" t="s">
-        <v>33</v>
+      <c r="V447" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="448">
@@ -33406,8 +33406,8 @@
       <c r="U448" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V448" s="1" t="s">
-        <v>33</v>
+      <c r="V448" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="449">
@@ -33474,8 +33474,8 @@
       <c r="U449" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V449" s="1" t="s">
-        <v>33</v>
+      <c r="V449" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="450">
@@ -33542,8 +33542,8 @@
       <c r="U450" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V450" s="1" t="s">
-        <v>33</v>
+      <c r="V450" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="451">
@@ -33610,8 +33610,8 @@
       <c r="U451" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V451" s="1" t="s">
-        <v>33</v>
+      <c r="V451" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="452">
@@ -33678,8 +33678,8 @@
       <c r="U452" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V452" s="1" t="s">
-        <v>33</v>
+      <c r="V452" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="453">
@@ -33746,8 +33746,8 @@
       <c r="U453" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V453" s="1" t="s">
-        <v>33</v>
+      <c r="V453" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="454">
@@ -33814,8 +33814,8 @@
       <c r="U454" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V454" s="1" t="s">
-        <v>33</v>
+      <c r="V454" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="455">
@@ -33882,8 +33882,8 @@
       <c r="U455" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V455" s="1" t="s">
-        <v>33</v>
+      <c r="V455" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="456">
@@ -33950,8 +33950,8 @@
       <c r="U456" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V456" s="1" t="s">
-        <v>33</v>
+      <c r="V456" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="457">
@@ -34018,8 +34018,8 @@
       <c r="U457" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V457" s="1" t="s">
-        <v>33</v>
+      <c r="V457" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="458">
@@ -34086,8 +34086,8 @@
       <c r="U458" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V458" s="1" t="s">
-        <v>33</v>
+      <c r="V458" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="459">
@@ -34154,8 +34154,8 @@
       <c r="U459" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V459" s="1" t="s">
-        <v>33</v>
+      <c r="V459" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="460">
@@ -34222,8 +34222,8 @@
       <c r="U460" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V460" s="1" t="s">
-        <v>33</v>
+      <c r="V460" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="461">
@@ -34290,8 +34290,8 @@
       <c r="U461" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V461" s="1" t="s">
-        <v>33</v>
+      <c r="V461" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="462">
@@ -34358,8 +34358,8 @@
       <c r="U462" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V462" s="1" t="s">
-        <v>33</v>
+      <c r="V462" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="463">
@@ -34426,8 +34426,8 @@
       <c r="U463" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V463" s="1" t="s">
-        <v>33</v>
+      <c r="V463" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="464">
@@ -34494,8 +34494,8 @@
       <c r="U464" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V464" s="1" t="s">
-        <v>33</v>
+      <c r="V464" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="465">
@@ -34562,8 +34562,8 @@
       <c r="U465" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V465" s="1" t="s">
-        <v>33</v>
+      <c r="V465" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="466">
@@ -34766,8 +34766,8 @@
       <c r="U468" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V468" s="1" t="s">
-        <v>33</v>
+      <c r="V468" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="469">
@@ -34834,8 +34834,8 @@
       <c r="U469" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V469" s="1" t="s">
-        <v>33</v>
+      <c r="V469" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="470">
@@ -34902,8 +34902,8 @@
       <c r="U470" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V470" s="1" t="s">
-        <v>33</v>
+      <c r="V470" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="471">
@@ -34970,8 +34970,8 @@
       <c r="U471" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V471" s="1" t="s">
-        <v>33</v>
+      <c r="V471" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="472">
@@ -35038,8 +35038,8 @@
       <c r="U472" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V472" s="1" t="s">
-        <v>33</v>
+      <c r="V472" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="473">
@@ -35106,8 +35106,8 @@
       <c r="U473" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V473" s="1" t="s">
-        <v>33</v>
+      <c r="V473" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="474">
@@ -35174,8 +35174,8 @@
       <c r="U474" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V474" s="1" t="s">
-        <v>33</v>
+      <c r="V474" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="475">
@@ -35242,8 +35242,8 @@
       <c r="U475" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V475" s="1" t="s">
-        <v>33</v>
+      <c r="V475" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="476">
@@ -35310,8 +35310,8 @@
       <c r="U476" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V476" s="1" t="s">
-        <v>33</v>
+      <c r="V476" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="477">
@@ -35378,8 +35378,8 @@
       <c r="U477" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V477" s="1" t="s">
-        <v>33</v>
+      <c r="V477" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="478">
@@ -35446,8 +35446,8 @@
       <c r="U478" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V478" s="1" t="s">
-        <v>33</v>
+      <c r="V478" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="479">
@@ -35514,8 +35514,8 @@
       <c r="U479" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V479" s="1" t="s">
-        <v>33</v>
+      <c r="V479" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="480">
@@ -35582,8 +35582,8 @@
       <c r="U480" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V480" s="1" t="s">
-        <v>33</v>
+      <c r="V480" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="481">
@@ -35650,8 +35650,8 @@
       <c r="U481" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V481" s="1" t="s">
-        <v>33</v>
+      <c r="V481" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="482">
@@ -35718,8 +35718,8 @@
       <c r="U482" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V482" s="1" t="s">
-        <v>33</v>
+      <c r="V482" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="483">
@@ -35786,8 +35786,8 @@
       <c r="U483" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V483" s="1" t="s">
-        <v>33</v>
+      <c r="V483" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="484">
@@ -35854,8 +35854,8 @@
       <c r="U484" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V484" s="1" t="s">
-        <v>33</v>
+      <c r="V484" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="485">
@@ -35922,8 +35922,8 @@
       <c r="U485" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V485" s="1" t="s">
-        <v>33</v>
+      <c r="V485" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="486">
@@ -35990,8 +35990,8 @@
       <c r="U486" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V486" s="1" t="s">
-        <v>33</v>
+      <c r="V486" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="487">
@@ -36058,8 +36058,8 @@
       <c r="U487" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V487" s="1" t="s">
-        <v>33</v>
+      <c r="V487" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="488">
@@ -36126,8 +36126,8 @@
       <c r="U488" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V488" s="1" t="s">
-        <v>33</v>
+      <c r="V488" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="489">
@@ -36194,8 +36194,8 @@
       <c r="U489" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V489" s="1" t="s">
-        <v>33</v>
+      <c r="V489" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="490">
@@ -36262,8 +36262,8 @@
       <c r="U490" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V490" s="1" t="s">
-        <v>33</v>
+      <c r="V490" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="491">
@@ -36330,8 +36330,8 @@
       <c r="U491" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V491" s="1" t="s">
-        <v>33</v>
+      <c r="V491" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="492">
@@ -36398,8 +36398,8 @@
       <c r="U492" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V492" s="1" t="s">
-        <v>33</v>
+      <c r="V492" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="493">
@@ -36466,8 +36466,8 @@
       <c r="U493" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V493" s="1" t="s">
-        <v>33</v>
+      <c r="V493" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="494">
@@ -36534,8 +36534,8 @@
       <c r="U494" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V494" s="1" t="s">
-        <v>33</v>
+      <c r="V494" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="495">
@@ -36602,8 +36602,8 @@
       <c r="U495" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V495" s="1" t="s">
-        <v>33</v>
+      <c r="V495" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="496">
@@ -36670,8 +36670,8 @@
       <c r="U496" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V496" s="1" t="s">
-        <v>33</v>
+      <c r="V496" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="497">
@@ -36738,8 +36738,8 @@
       <c r="U497" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V497" s="1" t="s">
-        <v>33</v>
+      <c r="V497" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="498">
@@ -36806,8 +36806,8 @@
       <c r="U498" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V498" s="1" t="s">
-        <v>33</v>
+      <c r="V498" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="499">
@@ -36874,8 +36874,8 @@
       <c r="U499" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V499" s="1" t="s">
-        <v>33</v>
+      <c r="V499" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="500">
@@ -36942,8 +36942,8 @@
       <c r="U500" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V500" s="1" t="s">
-        <v>33</v>
+      <c r="V500" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="501">
@@ -37010,8 +37010,8 @@
       <c r="U501" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V501" s="1" t="s">
-        <v>33</v>
+      <c r="V501" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="502">
@@ -37078,8 +37078,8 @@
       <c r="U502" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V502" s="1" t="s">
-        <v>33</v>
+      <c r="V502" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="503">
@@ -37146,8 +37146,8 @@
       <c r="U503" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V503" s="1" t="s">
-        <v>33</v>
+      <c r="V503" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="504">
@@ -37214,8 +37214,8 @@
       <c r="U504" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V504" s="1" t="s">
-        <v>33</v>
+      <c r="V504" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="505">
@@ -37282,8 +37282,8 @@
       <c r="U505" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V505" s="1" t="s">
-        <v>33</v>
+      <c r="V505" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="506">
@@ -37350,8 +37350,8 @@
       <c r="U506" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V506" s="1" t="s">
-        <v>33</v>
+      <c r="V506" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="507">
@@ -37418,8 +37418,8 @@
       <c r="U507" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V507" s="1" t="s">
-        <v>33</v>
+      <c r="V507" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="508">
@@ -37486,8 +37486,8 @@
       <c r="U508" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V508" s="1" t="s">
-        <v>33</v>
+      <c r="V508" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="509">
@@ -37554,8 +37554,8 @@
       <c r="U509" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V509" s="1" t="s">
-        <v>33</v>
+      <c r="V509" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="510">
@@ -37758,8 +37758,8 @@
       <c r="U512" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V512" s="1" t="s">
-        <v>33</v>
+      <c r="V512" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="513">
@@ -37826,8 +37826,8 @@
       <c r="U513" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V513" s="1" t="s">
-        <v>33</v>
+      <c r="V513" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="514">
@@ -37894,8 +37894,8 @@
       <c r="U514" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V514" s="1" t="s">
-        <v>33</v>
+      <c r="V514" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="515">
@@ -37962,8 +37962,8 @@
       <c r="U515" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V515" s="1" t="s">
-        <v>33</v>
+      <c r="V515" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="516">
@@ -38030,8 +38030,8 @@
       <c r="U516" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V516" s="1" t="s">
-        <v>33</v>
+      <c r="V516" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="517">
@@ -38098,8 +38098,8 @@
       <c r="U517" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V517" s="1" t="s">
-        <v>33</v>
+      <c r="V517" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="518">
@@ -38166,8 +38166,8 @@
       <c r="U518" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V518" s="1" t="s">
-        <v>33</v>
+      <c r="V518" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="519">
@@ -38234,8 +38234,8 @@
       <c r="U519" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V519" s="1" t="s">
-        <v>33</v>
+      <c r="V519" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="520">
@@ -38302,8 +38302,8 @@
       <c r="U520" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V520" s="1" t="s">
-        <v>33</v>
+      <c r="V520" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="521">
@@ -38370,8 +38370,8 @@
       <c r="U521" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V521" s="1" t="s">
-        <v>33</v>
+      <c r="V521" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="522">
@@ -38438,8 +38438,8 @@
       <c r="U522" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V522" s="1" t="s">
-        <v>33</v>
+      <c r="V522" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="523">
@@ -38506,8 +38506,8 @@
       <c r="U523" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V523" s="1" t="s">
-        <v>33</v>
+      <c r="V523" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="524">
@@ -38574,8 +38574,8 @@
       <c r="U524" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V524" s="1" t="s">
-        <v>33</v>
+      <c r="V524" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="525">
@@ -38642,8 +38642,8 @@
       <c r="U525" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V525" s="1" t="s">
-        <v>33</v>
+      <c r="V525" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="526">
@@ -38710,8 +38710,8 @@
       <c r="U526" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V526" s="1" t="s">
-        <v>33</v>
+      <c r="V526" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="527">
@@ -38778,8 +38778,8 @@
       <c r="U527" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V527" s="1" t="s">
-        <v>33</v>
+      <c r="V527" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="528">
@@ -38846,8 +38846,8 @@
       <c r="U528" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V528" s="1" t="s">
-        <v>33</v>
+      <c r="V528" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="529">
@@ -38914,8 +38914,8 @@
       <c r="U529" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V529" s="1" t="s">
-        <v>33</v>
+      <c r="V529" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="530">
@@ -38982,8 +38982,8 @@
       <c r="U530" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V530" s="1" t="s">
-        <v>33</v>
+      <c r="V530" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="531">
@@ -39050,8 +39050,8 @@
       <c r="U531" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V531" s="1" t="s">
-        <v>33</v>
+      <c r="V531" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="532">
@@ -39254,8 +39254,8 @@
       <c r="U534" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V534" s="1" t="s">
-        <v>33</v>
+      <c r="V534" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="535">
@@ -39322,8 +39322,8 @@
       <c r="U535" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V535" s="1" t="s">
-        <v>33</v>
+      <c r="V535" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="536">
@@ -39390,8 +39390,8 @@
       <c r="U536" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V536" s="1" t="s">
-        <v>33</v>
+      <c r="V536" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="537">
@@ -39458,8 +39458,8 @@
       <c r="U537" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V537" s="1" t="s">
-        <v>33</v>
+      <c r="V537" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="538">
@@ -39526,8 +39526,8 @@
       <c r="U538" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V538" s="1" t="s">
-        <v>33</v>
+      <c r="V538" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="539">
@@ -39594,8 +39594,8 @@
       <c r="U539" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V539" s="1" t="s">
-        <v>33</v>
+      <c r="V539" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="540">
@@ -39662,8 +39662,8 @@
       <c r="U540" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V540" s="1" t="s">
-        <v>33</v>
+      <c r="V540" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="541">
@@ -39730,8 +39730,8 @@
       <c r="U541" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V541" s="1" t="s">
-        <v>33</v>
+      <c r="V541" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="542">
@@ -39798,8 +39798,8 @@
       <c r="U542" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V542" s="1" t="s">
-        <v>33</v>
+      <c r="V542" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="543">
@@ -39866,8 +39866,8 @@
       <c r="U543" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V543" s="1" t="s">
-        <v>33</v>
+      <c r="V543" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="544">
@@ -39934,8 +39934,8 @@
       <c r="U544" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V544" s="1" t="s">
-        <v>33</v>
+      <c r="V544" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="545">
@@ -40002,8 +40002,8 @@
       <c r="U545" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V545" s="1" t="s">
-        <v>33</v>
+      <c r="V545" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="546">
@@ -40070,8 +40070,8 @@
       <c r="U546" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V546" s="1" t="s">
-        <v>33</v>
+      <c r="V546" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="547">
@@ -40138,8 +40138,8 @@
       <c r="U547" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V547" s="1" t="s">
-        <v>33</v>
+      <c r="V547" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="548">
@@ -40342,8 +40342,8 @@
       <c r="U550" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V550" s="1" t="s">
-        <v>33</v>
+      <c r="V550" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="551">
@@ -40410,8 +40410,8 @@
       <c r="U551" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V551" s="1" t="s">
-        <v>33</v>
+      <c r="V551" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="552">
@@ -40478,8 +40478,8 @@
       <c r="U552" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V552" s="1" t="s">
-        <v>33</v>
+      <c r="V552" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="553">
@@ -40546,8 +40546,8 @@
       <c r="U553" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V553" s="1" t="s">
-        <v>33</v>
+      <c r="V553" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="554">
@@ -40614,8 +40614,8 @@
       <c r="U554" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V554" s="1" t="s">
-        <v>33</v>
+      <c r="V554" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="555">
@@ -40682,8 +40682,8 @@
       <c r="U555" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V555" s="1" t="s">
-        <v>33</v>
+      <c r="V555" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="556">
@@ -40750,8 +40750,8 @@
       <c r="U556" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V556" s="1" t="s">
-        <v>33</v>
+      <c r="V556" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="557">
@@ -40954,8 +40954,8 @@
       <c r="U559" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V559" s="1" t="s">
-        <v>33</v>
+      <c r="V559" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="560">
@@ -41022,8 +41022,8 @@
       <c r="U560" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V560" s="1" t="s">
-        <v>33</v>
+      <c r="V560" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="561">
@@ -41090,8 +41090,8 @@
       <c r="U561" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V561" s="1" t="s">
-        <v>33</v>
+      <c r="V561" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="562">
@@ -41158,8 +41158,8 @@
       <c r="U562" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V562" s="1" t="s">
-        <v>33</v>
+      <c r="V562" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="563">
@@ -41226,8 +41226,8 @@
       <c r="U563" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V563" s="1" t="s">
-        <v>33</v>
+      <c r="V563" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="564">
@@ -41294,8 +41294,8 @@
       <c r="U564" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V564" s="1" t="s">
-        <v>33</v>
+      <c r="V564" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="565">
@@ -41498,8 +41498,8 @@
       <c r="U567" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V567" s="1" t="s">
-        <v>33</v>
+      <c r="V567" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="568">
@@ -41566,8 +41566,8 @@
       <c r="U568" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V568" s="1" t="s">
-        <v>33</v>
+      <c r="V568" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="569">
@@ -41634,8 +41634,8 @@
       <c r="U569" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V569" s="1" t="s">
-        <v>33</v>
+      <c r="V569" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="570">
@@ -41702,8 +41702,8 @@
       <c r="U570" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V570" s="1" t="s">
-        <v>33</v>
+      <c r="V570" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="571">
@@ -41770,8 +41770,8 @@
       <c r="U571" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V571" s="1" t="s">
-        <v>33</v>
+      <c r="V571" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="572">
@@ -41838,8 +41838,8 @@
       <c r="U572" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V572" s="1" t="s">
-        <v>33</v>
+      <c r="V572" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="573">
@@ -41906,8 +41906,8 @@
       <c r="U573" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V573" s="1" t="s">
-        <v>33</v>
+      <c r="V573" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="574">
@@ -41974,8 +41974,8 @@
       <c r="U574" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V574" s="1" t="s">
-        <v>33</v>
+      <c r="V574" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="575">
@@ -42042,8 +42042,8 @@
       <c r="U575" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V575" s="1" t="s">
-        <v>33</v>
+      <c r="V575" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="576">
@@ -42110,8 +42110,8 @@
       <c r="U576" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V576" s="1" t="s">
-        <v>33</v>
+      <c r="V576" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="577">
@@ -42178,8 +42178,8 @@
       <c r="U577" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V577" s="1" t="s">
-        <v>33</v>
+      <c r="V577" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="578">
@@ -42246,8 +42246,8 @@
       <c r="U578" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V578" s="1" t="s">
-        <v>33</v>
+      <c r="V578" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="579">
@@ -42314,8 +42314,8 @@
       <c r="U579" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V579" s="1" t="s">
-        <v>33</v>
+      <c r="V579" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="580">
@@ -42382,8 +42382,8 @@
       <c r="U580" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V580" s="1" t="s">
-        <v>33</v>
+      <c r="V580" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="581">
@@ -42450,8 +42450,8 @@
       <c r="U581" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V581" s="1" t="s">
-        <v>33</v>
+      <c r="V581" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="582">
@@ -42518,8 +42518,8 @@
       <c r="U582" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V582" s="1" t="s">
-        <v>33</v>
+      <c r="V582" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="583">
@@ -42586,8 +42586,8 @@
       <c r="U583" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V583" s="1" t="s">
-        <v>33</v>
+      <c r="V583" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="584">
@@ -42654,8 +42654,8 @@
       <c r="U584" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V584" s="1" t="s">
-        <v>33</v>
+      <c r="V584" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="585">
@@ -42722,8 +42722,8 @@
       <c r="U585" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V585" s="1" t="s">
-        <v>33</v>
+      <c r="V585" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="586">
@@ -42790,8 +42790,8 @@
       <c r="U586" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V586" s="1" t="s">
-        <v>33</v>
+      <c r="V586" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="587">
@@ -42858,8 +42858,8 @@
       <c r="U587" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V587" s="1" t="s">
-        <v>33</v>
+      <c r="V587" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="588">
@@ -42926,8 +42926,8 @@
       <c r="U588" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V588" s="1" t="s">
-        <v>33</v>
+      <c r="V588" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="589">
@@ -42994,8 +42994,8 @@
       <c r="U589" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V589" s="1" t="s">
-        <v>33</v>
+      <c r="V589" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="590">
@@ -43062,8 +43062,8 @@
       <c r="U590" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V590" s="1" t="s">
-        <v>33</v>
+      <c r="V590" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="591">
@@ -43130,8 +43130,8 @@
       <c r="U591" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V591" s="1" t="s">
-        <v>33</v>
+      <c r="V591" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="592">
@@ -43198,8 +43198,8 @@
       <c r="U592" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V592" s="1" t="s">
-        <v>33</v>
+      <c r="V592" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="593">
@@ -43266,8 +43266,8 @@
       <c r="U593" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V593" s="1" t="s">
-        <v>33</v>
+      <c r="V593" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="594">
@@ -43334,8 +43334,8 @@
       <c r="U594" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V594" s="1" t="s">
-        <v>33</v>
+      <c r="V594" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="595">
@@ -43402,8 +43402,8 @@
       <c r="U595" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V595" s="1" t="s">
-        <v>33</v>
+      <c r="V595" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="596">
@@ -43470,8 +43470,8 @@
       <c r="U596" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V596" s="1" t="s">
-        <v>33</v>
+      <c r="V596" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="597">
@@ -43538,8 +43538,8 @@
       <c r="U597" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V597" s="1" t="s">
-        <v>33</v>
+      <c r="V597" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="598">
@@ -43606,8 +43606,8 @@
       <c r="U598" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V598" s="1" t="s">
-        <v>33</v>
+      <c r="V598" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="599">
@@ -43674,8 +43674,8 @@
       <c r="U599" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V599" s="1" t="s">
-        <v>33</v>
+      <c r="V599" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="600">
@@ -43742,8 +43742,8 @@
       <c r="U600" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V600" s="1" t="s">
-        <v>33</v>
+      <c r="V600" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-VEN.xlsx
+++ b/Excel-XLSX/UN-VEN.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>6mX9kD</t>
+    <t>0GXg8n</t>
   </si>
   <si>
     <t>1969</t>
@@ -2568,7 +2568,7 @@
     <t>603</t>
   </si>
   <si>
-    <t>29173</t>
+    <t>19173</t>
   </si>
   <si>
     <t>604</t>
@@ -2610,7 +2610,7 @@
     <t>616</t>
   </si>
   <si>
-    <t>227172</t>
+    <t>590346</t>
   </si>
   <si>
     <t>617</t>
